--- a/config_Release/item_gun_config.xlsx
+++ b/config_Release/item_gun_config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>id|行号</t>
   </si>
@@ -346,63 +346,91 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光：攻击指定点，死光随机捕获周围其鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift",10238,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_hint|提示文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_anniu_hint|按钮上的文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>"buygift",10237,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光：攻击指定点，死光随机捕获周围其鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP5开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buygift",10238,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买礼包获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买礼包获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币购买</t>
+    <t>是否花费98元购买980万金币+【核能风暴】永久使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【死灵之光】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【金焰】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费198元购买【神龙之力】永久使用权</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -500,6 +528,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,7 +547,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +586,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -825,11 +867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -839,14 +881,16 @@
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="9" max="9" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.625" customWidth="1"/>
     <col min="11" max="11" width="28.75" customWidth="1"/>
     <col min="12" max="12" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.125" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,8 +927,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -920,7 +970,7 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -957,8 +1007,12 @@
       <c r="L3" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -990,13 +1044,17 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1025,16 +1083,20 @@
         <v>22</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1063,16 +1125,22 @@
         <v>46</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>56</v>
+        <v>73</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1101,16 +1169,22 @@
         <v>41</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="M7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1139,16 +1213,22 @@
         <v>45</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1183,7 +1263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1220,8 +1300,12 @@
       <c r="L10" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1250,13 +1334,17 @@
         <v>24</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1285,13 +1373,19 @@
         <v>42</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>50</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/item_gun_config.xlsx
+++ b/config_Release/item_gun_config.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>id|行号</t>
   </si>
@@ -869,9 +869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1339,6 +1339,9 @@
       <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="L11" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="7" t="s">
         <v>71</v>

--- a/config_Release/item_gun_config.xlsx
+++ b/config_Release/item_gun_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t>id|行号</t>
   </si>
@@ -155,282 +155,432 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>desc_get|获得方式描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id|道具ID，全局唯一，这个不能修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_parm|使用参数，找程序确认该填写的内容值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_3</t>
+  </si>
+  <si>
+    <t>gun_barrel_4</t>
+  </si>
+  <si>
+    <t>gun_barrel_6</t>
+  </si>
+  <si>
+    <t>gun_bed_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_2</t>
+  </si>
+  <si>
+    <t>gun_bed_3</t>
+  </si>
+  <si>
+    <t>小钢炮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆幻影</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀风暴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币使者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿芒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制：稀有品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP1开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_pt_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_xy_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_ss_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统赠送</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青柠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金焰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_bed_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_cs_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙之力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能风暴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buyitem",26,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buyitem",27,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统赠送基础炮座</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续签到获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vip","hint"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_qd","panel"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买礼包获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_hint|提示文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_anniu_hint|按钮上的文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift",10237,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费98元购买980万金币+【核能风暴】永久使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【死灵之光】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【金焰】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费198元购买【神龙之力】永久使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光：攻击指定点，捕获周围鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame_2</t>
+  </si>
+  <si>
+    <t>head_frame_3</t>
+  </si>
+  <si>
+    <t>head_frame_4</t>
+  </si>
+  <si>
+    <t>head_frame_5</t>
+  </si>
+  <si>
+    <t>30级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>70级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  I</t>
+  </si>
+  <si>
+    <t>圣光  II</t>
+  </si>
+  <si>
+    <t>圣光  III</t>
+  </si>
+  <si>
+    <t>圣光  IV</t>
+  </si>
+  <si>
+    <t>圣光  V</t>
+  </si>
+  <si>
+    <t>gun_barrel_8</t>
+  </si>
+  <si>
+    <t>gun_barrel_9</t>
+  </si>
+  <si>
+    <t>gun_barrel_10</t>
+  </si>
+  <si>
+    <t>gun_barrel_11</t>
+  </si>
+  <si>
+    <t>gun_barrel_12</t>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt4</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt2</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt3</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type|类型1是炮台2是基座3是头像框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>desc|技能特殊效果描述</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>desc_get|获得方式描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_id|道具ID，全局唯一，这个不能修改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>type|类型1是炮台2是基座</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>use_parm|使用参数，找程序确认该填写的内容值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_3</t>
-  </si>
-  <si>
-    <t>gun_barrel_4</t>
-  </si>
-  <si>
-    <t>gun_barrel_6</t>
-  </si>
-  <si>
-    <t>gun_bed_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_bed_2</t>
-  </si>
-  <si>
-    <t>gun_bed_3</t>
-  </si>
-  <si>
-    <t>小钢炮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷霆幻影</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪耀风暴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币使者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿芒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒霜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制：稀有品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP1开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_pt_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_xy_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_ss_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统赠送</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>青柠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金焰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_bed_4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_cs_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙之力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能风暴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buyitem",26,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buyitem",27,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统赠送基础炮座</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续签到获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gun_barrel_2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"vip","hint"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_qd","panel"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙杀：瞬间提高子弹250%的杀伤力\n被动效果：提高击杀龙王的概率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP5开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP3开启</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼子弹威力提高千分之五\n限制：传说品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备后效果：捕鱼命中率提升千分之二\n限制：史诗品质以上炮台可用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>head_frame_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame_6</t>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_bg1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础头像框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx2</t>
+  </si>
+  <si>
+    <t>dt_tx_mx3</t>
+  </si>
+  <si>
+    <t>dt_tx_mx4</t>
+  </si>
+  <si>
+    <t>dt_tx_mx5</t>
+  </si>
+  <si>
+    <t>探险 I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险 II</t>
+  </si>
+  <si>
+    <t>探险 III</t>
+  </si>
+  <si>
+    <t>探险 IV</t>
+  </si>
+  <si>
+    <t>探险 V</t>
   </si>
   <si>
     <t>"buygift",10238,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>购买礼包获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买礼包获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_hint|提示文字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_anniu_hint|按钮上的文字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buygift",10237,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费98元购买980万金币+【核能风暴】永久使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费30万金币购买【死灵之光】30天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费30万金币购买【金焰】30天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费198元购买【神龙之力】永久使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光：攻击指定点，捕获周围鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
+    <t>"game_Fishing3DHall",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -867,11 +1017,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -884,7 +1034,7 @@
     <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.625" customWidth="1"/>
-    <col min="11" max="11" width="28.75" customWidth="1"/>
+    <col min="11" max="11" width="28.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="33.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.125" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
@@ -895,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -904,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -919,19 +1069,19 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -942,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -954,19 +1104,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L2" s="5"/>
     </row>
@@ -978,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -990,26 +1140,26 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1020,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -1032,26 +1182,26 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1062,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -1074,26 +1224,26 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1104,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="9">
         <v>2</v>
@@ -1116,28 +1266,28 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1148,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9">
         <v>3</v>
@@ -1160,28 +1310,28 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1192,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9">
         <v>3</v>
@@ -1204,28 +1354,28 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1233,162 +1383,565 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
-        <v>2</v>
+      <c r="E9" s="6">
+        <v>1</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
+      <c r="G9" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="H9" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>2</v>
+      <c r="B10" s="4">
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
       </c>
       <c r="E10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
+      <c r="G10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="4">
+        <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="M10" s="5"/>
-      <c r="N10" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>3</v>
+      <c r="B11" s="4">
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
       </c>
-      <c r="E11" s="3">
-        <v>2</v>
+      <c r="E11" s="6">
+        <v>1</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
+      <c r="G11" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>85</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="M11" s="5"/>
-      <c r="N11" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="4">
+        <v>11</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="4">
+        <v>12</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="9">
         <v>3</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E17" s="6">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="3">
         <v>4</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="11" t="s">
+      <c r="I17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="L17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>71</v>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/item_gun_config.xlsx
+++ b/config_Release/item_gun_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="153">
   <si>
     <t>id|行号</t>
   </si>
@@ -374,213 +374,388 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>金币购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_hint|提示文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_anniu_hint|按钮上的文字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【死灵之光】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费30万金币购买【金焰】30天使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵之光：攻击指定点，捕获周围鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame_2</t>
+  </si>
+  <si>
+    <t>head_frame_3</t>
+  </si>
+  <si>
+    <t>head_frame_4</t>
+  </si>
+  <si>
+    <t>head_frame_5</t>
+  </si>
+  <si>
+    <t>30级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>90级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>70级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光  I</t>
+  </si>
+  <si>
+    <t>圣光  II</t>
+  </si>
+  <si>
+    <t>圣光  III</t>
+  </si>
+  <si>
+    <t>圣光  IV</t>
+  </si>
+  <si>
+    <t>圣光  V</t>
+  </si>
+  <si>
+    <t>gun_barrel_8</t>
+  </si>
+  <si>
+    <t>gun_barrel_9</t>
+  </si>
+  <si>
+    <t>gun_barrel_10</t>
+  </si>
+  <si>
+    <t>gun_barrel_11</t>
+  </si>
+  <si>
+    <t>gun_barrel_12</t>
+  </si>
+  <si>
+    <t>3dby_icon_p6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt4</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_djpt2</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt3</t>
+  </si>
+  <si>
+    <t>3dby_icon_djpt5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80级解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>type|类型1是炮台2是基座3是头像框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|技能特殊效果描述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_frame_6</t>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_bg1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础头像框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dt_tx_mx2</t>
+  </si>
+  <si>
+    <t>dt_tx_mx3</t>
+  </si>
+  <si>
+    <t>dt_tx_mx4</t>
+  </si>
+  <si>
+    <t>dt_tx_mx5</t>
+  </si>
+  <si>
+    <t>探险 I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险 II</t>
+  </si>
+  <si>
+    <t>探险 III</t>
+  </si>
+  <si>
+    <t>探险 IV</t>
+  </si>
+  <si>
+    <t>探险 V</t>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute_img</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"&lt;color=#fff173&gt;激光炮：直线方向释放激光，有几率捕获激光所发射范围内的任意鱼类&lt;/color&gt;",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GunPrefab6_ui</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"&lt;color=#fff173&gt;穿透弹：发射一发穿透弹，可捕获同移动线上的任意鱼类&lt;/color&gt;",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_6_ui</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_icon_jg_skill",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_icon_ct_skill",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GunPrefab9_ui</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_7_ui</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"&lt;color=#fff173&gt;核能炮：在屏幕中间释放一颗小型原子弹，随机捕获炸弹范围内的任意鱼类&lt;/color&gt;",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GunPrefab8_ui</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_8_ui</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_icon_hn_skill",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"&lt;color=#fff173&gt;死亡之灵：攻击指定点，捕获周围鱼类&lt;/color&gt;","&lt;color=#00fff0&gt;被动效果：提高捕获奖金鱼后获得高倍的几率&lt;/color&gt;"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_icon_sw_skill",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3dby_icon_sl_skill",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"&lt;color=#fff173&gt;神龙杀：瞬间提高子弹250%的杀伤力&lt;/color&gt;","&lt;color=#00fff0&gt;被动效果：提高击杀龙王的概率&lt;/color&gt;"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BulletPrefab_3d_10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ui</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BulletPrefab_3d_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9_ui</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FishNetPrefab_3d_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FishNetPrefab_3d_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GunPrefab11_ui</t>
+  </si>
+  <si>
+    <t>GunPrefab10_ui</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>购买礼包获得</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>金币购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_hint|提示文字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_anniu_hint|按钮上的文字</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"buygift",10237,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费98元购买980万金币+【核能风暴】永久使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费30万金币购买【死灵之光】30天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费30万金币购买【金焰】30天使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费198元购买【神龙之力】永久使用权</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵之光：攻击指定点，捕获周围鱼类\n被动效果：提高捕获奖金鱼后获得高倍的几率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_frame_2</t>
-  </si>
-  <si>
-    <t>head_frame_3</t>
-  </si>
-  <si>
-    <t>head_frame_4</t>
-  </si>
-  <si>
-    <t>head_frame_5</t>
-  </si>
-  <si>
-    <t>30级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>90级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>70级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣光  I</t>
-  </si>
-  <si>
-    <t>圣光  II</t>
-  </si>
-  <si>
-    <t>圣光  III</t>
-  </si>
-  <si>
-    <t>圣光  IV</t>
-  </si>
-  <si>
-    <t>圣光  V</t>
-  </si>
-  <si>
-    <t>gun_barrel_8</t>
-  </si>
-  <si>
-    <t>gun_barrel_9</t>
-  </si>
-  <si>
-    <t>gun_barrel_10</t>
-  </si>
-  <si>
-    <t>gun_barrel_11</t>
-  </si>
-  <si>
-    <t>gun_barrel_12</t>
-  </si>
-  <si>
-    <t>3dby_icon_p6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_djpt4</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_djpt2</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt3</t>
-  </si>
-  <si>
-    <t>3dby_icon_djpt5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80级解锁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>type|类型1是炮台2是基座3是头像框</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc|技能特殊效果描述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_frame_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_frame_6</t>
-  </si>
-  <si>
-    <t>基础</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt_tx_bg1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础头像框</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt_tx_mx1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dt_tx_mx2</t>
-  </si>
-  <si>
-    <t>dt_tx_mx3</t>
-  </si>
-  <si>
-    <t>dt_tx_mx4</t>
-  </si>
-  <si>
-    <t>dt_tx_mx5</t>
-  </si>
-  <si>
-    <t>探险 I</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>探险 II</t>
-  </si>
-  <si>
-    <t>探险 III</t>
-  </si>
-  <si>
-    <t>探险 IV</t>
-  </si>
-  <si>
-    <t>探险 V</t>
-  </si>
-  <si>
-    <t>"buygift",10238,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
+    <t>"buygift",10343,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"buygift",10341,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费498元购买【神龙之力】永久使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费98元购买【核能风暴】永久使用权</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +872,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +914,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1017,11 +1204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1033,14 +1220,18 @@
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.625" customWidth="1"/>
+    <col min="10" max="10" width="79.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.75" style="2" customWidth="1"/>
     <col min="12" max="12" width="33.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.125" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1069,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1078,13 +1269,31 @@
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>66</v>
+      <c r="O1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1120,7 +1329,7 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1159,10 +1368,10 @@
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1201,10 +1410,28 @@
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="O4" s="8">
+        <v>10345</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1243,10 +1470,28 @@
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="O5" s="8">
+        <v>10344</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1278,19 +1523,37 @@
         <v>54</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="O6" s="8">
+        <v>10343</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1319,22 +1582,40 @@
         <v>38</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="O7" s="8">
+        <v>10342</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1354,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
@@ -1369,16 +1650,34 @@
         <v>61</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="O8" s="8">
+        <v>10341</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1386,7 +1685,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -1398,25 +1697,25 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H9" s="4">
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1424,7 +1723,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -1436,25 +1735,25 @@
         <v>1</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H10" s="4">
         <v>9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1462,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
@@ -1474,25 +1773,25 @@
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H11" s="4">
         <v>10</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1500,7 +1799,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D12" s="9">
         <v>2</v>
@@ -1512,25 +1811,25 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H12" s="4">
         <v>11</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1538,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D13" s="9">
         <v>3</v>
@@ -1550,25 +1849,25 @@
         <v>1</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H13" s="4">
         <v>12</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1603,7 +1902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1642,10 +1941,10 @@
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1684,7 +1983,7 @@
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1725,10 +2024,10 @@
         <v>47</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1739,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -1751,16 +2050,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H18" s="4">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -1772,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1784,20 +2083,20 @@
         <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1808,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1820,20 +2119,20 @@
         <v>1</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H20" s="3">
         <v>2</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1844,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -1856,20 +2155,20 @@
         <v>1</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H21" s="3">
         <v>3</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1880,7 +2179,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -1892,20 +2191,20 @@
         <v>1</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H22" s="3">
         <v>4</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1916,7 +2215,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
@@ -1928,20 +2227,20 @@
         <v>1</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H23" s="4">
         <v>5</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/item_gun_config.xlsx
+++ b/config_Release/item_gun_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="156">
   <si>
     <t>id|行号</t>
   </si>
@@ -756,6 +756,18 @@
   </si>
   <si>
     <t>是否花费98元购买【核能风暴】永久使用权</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +828,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,6 +839,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -872,7 +890,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,10 +939,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,11 +1255,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1282,7 @@
     <col min="20" max="20" width="18.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,8 +1343,11 @@
       <c r="T1" s="13" t="s">
         <v>122</v>
       </c>
+      <c r="U1" s="13" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1329,7 +1383,7 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1371,7 +1425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1431,7 +1485,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1491,69 +1545,72 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="17">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="19">
         <v>2</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="17">
         <v>5</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="24">
         <v>10343</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="27" t="s">
         <v>136</v>
       </c>
+      <c r="U6" s="26" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1615,69 +1672,72 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="17">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="19">
         <v>3</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="17">
         <v>7</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="24">
         <v>10341</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="T8" s="28" t="s">
         <v>142</v>
       </c>
+      <c r="U8" s="26" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1715,7 +1775,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1753,7 +1813,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1791,7 +1851,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1829,7 +1889,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1867,7 +1927,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1902,7 +1962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1944,7 +2004,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>

--- a/config_Release/item_gun_config.xlsx
+++ b/config_Release/item_gun_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.28\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
@@ -19,13 +24,14 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:礼包购买的炮台数量参数为0标识永久，时限的直接填写秒数</t>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="164">
   <si>
     <t>id|行号</t>
   </si>
@@ -50,6 +56,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i</t>
@@ -59,6 +66,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tem_key</t>
@@ -68,6 +76,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>|道具key，全局唯一</t>
@@ -88,6 +97,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>image|</t>
@@ -97,6 +107,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道具</t>
@@ -106,6 +117,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>图片</t>
@@ -115,6 +127,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>名</t>
@@ -129,6 +142,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>name|</t>
@@ -138,6 +152,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>道具名称</t>
@@ -157,9 +172,6 @@
   </si>
   <si>
     <t>buy_anniu_hint|按钮上的文字</t>
-  </si>
-  <si>
-    <t>gift_id</t>
   </si>
   <si>
     <t>attribute</t>
@@ -347,6 +359,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -357,6 +370,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -369,6 +383,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -379,6 +394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -418,6 +434,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -428,6 +445,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -440,6 +458,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -450,6 +469,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -669,18 +689,36 @@
   <si>
     <t>探险 V</t>
   </si>
+  <si>
+    <t>"gift",10343</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_parm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gift",10345</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gift",10344</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gift",10342</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gift",10341</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,12 +730,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -705,165 +745,46 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,7 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,188 +803,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1097,257 +838,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1360,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1399,7 +898,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1435,64 +934,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1750,21 +1211,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
@@ -1778,13 +1238,14 @@
     <col min="12" max="12" width="33.625" customWidth="1"/>
     <col min="13" max="13" width="21.125" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
     <col min="17" max="17" width="17.875" customWidth="1"/>
     <col min="18" max="18" width="13.5" customWidth="1"/>
     <col min="19" max="19" width="18.125" customWidth="1"/>
     <col min="20" max="20" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="90.75" customHeight="1" spans="1:21">
+    <row r="1" spans="1:21" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1828,64 +1289,64 @@
         <v>13</v>
       </c>
       <c r="O1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1893,41 +1354,41 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="5">
         <v>2</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1935,59 +1396,59 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H4" s="5">
         <v>3</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="19" t="s">
+      <c r="L4" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="1">
-        <v>10345</v>
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="P4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="R4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="S4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="T4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:20">
+    </row>
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1995,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
@@ -2007,47 +1468,47 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="5">
         <v>4</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="1">
-        <v>10344</v>
+        <v>30</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="P5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="R5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="S5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="T5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:21">
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2055,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="12">
         <v>2</v>
@@ -2067,52 +1528,52 @@
         <v>1</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="10">
         <v>5</v>
       </c>
       <c r="I6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="K6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="L6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="P6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="2">
-        <v>10343</v>
-      </c>
-      <c r="P6" s="24" t="s">
+      <c r="Q6" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="R6" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="S6" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="T6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="U6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="U6" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:20">
+    </row>
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2120,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="15">
         <v>3</v>
@@ -2132,49 +1593,49 @@
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="5">
         <v>6</v>
       </c>
       <c r="I7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="L7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="N7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="1">
-        <v>10342</v>
-      </c>
-      <c r="P7" s="26" t="s">
+      <c r="Q7" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="R7" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="S7" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="T7" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="T7" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:21">
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2182,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="12">
         <v>3</v>
@@ -2194,52 +1655,52 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="10">
         <v>7</v>
       </c>
       <c r="I8" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="K8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="2">
-        <v>10341</v>
-      </c>
-      <c r="P8" s="24" t="s">
+      <c r="Q8" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="R8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="T8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="28" t="s">
-        <v>87</v>
-      </c>
       <c r="U8" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2247,37 +1708,37 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="H9" s="6">
         <v>8</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="19"/>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:14">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2285,37 +1746,37 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="H10" s="6">
         <v>9</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="19"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:14">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2323,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="15">
         <v>2</v>
@@ -2335,25 +1796,25 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="6">
         <v>10</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:14">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2361,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="15">
         <v>2</v>
@@ -2373,25 +1834,25 @@
         <v>1</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H12" s="6">
         <v>11</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:14">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2399,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="15">
         <v>3</v>
@@ -2411,25 +1872,25 @@
         <v>1</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" s="6">
         <v>12</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" customFormat="1" ht="15.75" spans="1:20">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2437,7 +1898,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -2449,43 +1910,40 @@
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14" s="3">
         <v>13</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
         <v>111</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="27" t="s">
+      <c r="P14" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14" s="24" t="s">
+      <c r="Q14" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="R14" s="27" t="s">
+      <c r="S14" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="S14" s="27" t="s">
-        <v>116</v>
-      </c>
       <c r="T14" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2493,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -2505,22 +1963,22 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="25" t="s">
+      <c r="J15" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="18" t="s">
-        <v>120</v>
-      </c>
       <c r="K15" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2528,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="15">
         <v>1</v>
@@ -2540,29 +1998,29 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
       </c>
       <c r="I16" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="K16" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2570,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="15">
         <v>2</v>
@@ -2582,29 +2040,29 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="5">
         <v>3</v>
       </c>
       <c r="I17" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="K17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2612,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="15">
         <v>3</v>
@@ -2624,31 +2082,31 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H18" s="5">
         <v>4</v>
       </c>
       <c r="I18" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="K18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K18" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="N18" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2656,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -2668,20 +2126,20 @@
         <v>1</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="25" t="s">
+      <c r="J19" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="18" t="s">
-        <v>139</v>
-      </c>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2689,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -2701,23 +2159,23 @@
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>142</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2725,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -2737,23 +2195,23 @@
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H21" s="5">
         <v>2</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2761,7 +2219,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
@@ -2773,23 +2231,23 @@
         <v>1</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="5">
         <v>3</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J22" s="18"/>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2797,7 +2255,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
@@ -2809,23 +2267,23 @@
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23" s="5">
         <v>4</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2833,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="3">
         <v>3</v>
@@ -2845,23 +2303,23 @@
         <v>1</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H24" s="6">
         <v>5</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J24" s="18"/>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="1:20">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7"/>
@@ -2871,7 +2329,6 @@
       <c r="G25" s="16"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25"/>
       <c r="K25" s="23"/>
       <c r="L25" s="27"/>
       <c r="P25" s="24"/>
@@ -2881,9 +2338,9 @@
       <c r="T25" s="28"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>